--- a/inputData/eco_system_inputs_GG_fixed_example.xlsx
+++ b/inputData/eco_system_inputs_GG_fixed_example.xlsx
@@ -1,85 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10791792_polimi_it/Documents/Desktop/PhD/Economic_model_crosswindAWE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10791792_polimi_it/Documents/2024-04 Economic model/EcoModel/inputData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="11_F25DC773A252ABDACC1048D3711B4E545ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4CDE46-51DF-4310-85D9-30DC3EB2B185}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_F25DC773A252ABDACC1048D3711B4E545ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49330C7-3DC0-46CF-8A10-7022A326DC73}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="3360" windowWidth="2220" windowHeight="3120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="system" sheetId="7" r:id="rId1"/>
-    <sheet name="business" sheetId="8" r:id="rId2"/>
-    <sheet name="kite" sheetId="3" r:id="rId3"/>
-    <sheet name="tether" sheetId="4" r:id="rId4"/>
-    <sheet name="g_station" sheetId="5" r:id="rId5"/>
-    <sheet name="LLA" sheetId="6" r:id="rId6"/>
+    <sheet name="atm" sheetId="9" r:id="rId1"/>
+    <sheet name="kite" sheetId="3" r:id="rId2"/>
+    <sheet name="tether" sheetId="4" r:id="rId3"/>
+    <sheet name="system" sheetId="7" r:id="rId4"/>
+    <sheet name="gStation" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>structure.m</t>
   </si>
   <si>
-    <t>propulsion.m</t>
-  </si>
-  <si>
-    <t>landing_g.m</t>
-  </si>
-  <si>
-    <t>upper.m</t>
-  </si>
-  <si>
-    <t>lower.m</t>
-  </si>
-  <si>
     <t>structure.A</t>
   </si>
   <si>
-    <t>P_rated</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Vw</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>sigma_lim</t>
-  </si>
-  <si>
-    <t>[8 10]'</t>
-  </si>
-  <si>
-    <t>[1.5e6 1.5e6]'</t>
-  </si>
-  <si>
-    <t>[0.05 0.05]'</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -89,28 +57,73 @@
     <t>d</t>
   </si>
   <si>
-    <t>[400000, 400000]'</t>
-  </si>
-  <si>
-    <t>rel</t>
-  </si>
-  <si>
-    <t>[0.9, 1.1]'</t>
-  </si>
-  <si>
-    <t>Uniform</t>
-  </si>
-  <si>
-    <t>scaling.cumprod</t>
-  </si>
-  <si>
-    <t>el_price</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>wind_range</t>
+  </si>
+  <si>
+    <t>[1     2     3     4     5     6     7     8     9    10    11    12    13    14    15    16    17    18    19    20    21    22    23    24    25]</t>
+  </si>
+  <si>
+    <t>obGen.P</t>
+  </si>
+  <si>
+    <t>obBatt.E</t>
+  </si>
+  <si>
+    <t>f_repl</t>
+  </si>
+  <si>
+    <t>[0	0	0	0	0	176218.741942466	247326.729934132	335309.738279319	349999.999905368	349999.999983002	349999.999999204	349983.541245218	348784.001594628	345425.348864681	349095.793762565	346191.685571336	341260.264393564	340281.862240894	340333.765419009	340876.771496480	341638.231403760	342493.800708096	343392.451059166	344311.108894388	345237.030244762]</t>
+  </si>
+  <si>
+    <t>F_t</t>
+  </si>
+  <si>
+    <t>P_m_peak</t>
+  </si>
+  <si>
+    <t>P_e_avg</t>
+  </si>
+  <si>
+    <t>P_e_rated</t>
+  </si>
+  <si>
+    <t>Dt_cycle</t>
+  </si>
+  <si>
+    <t>[0	0	0	0	0	145524.730974731	288495.257975699	488571.542997977	727335.279338411	953941.843495889	1000000.00000461	999999.999798969	1000000.00001413	1000000.00000000	1000000.00000046	1000000.00000080	1000000.00000000	1000000.00000017	1000000.00000000	999999.999732790	999999.999965783	999999.999995972	999999.999999559	999999.999999956	1000000.00000000]</t>
+  </si>
+  <si>
+    <t>ultracap.E_rated</t>
+  </si>
+  <si>
+    <t>ultracap.E_ex</t>
+  </si>
+  <si>
+    <t>ultracap.f_repl</t>
+  </si>
+  <si>
+    <t>hydAccum.E_rated</t>
+  </si>
+  <si>
+    <t>hydAccum.E_ex</t>
+  </si>
+  <si>
+    <t>hydAccum.f_repl</t>
+  </si>
+  <si>
+    <t>hydMotor.f_repl</t>
+  </si>
+  <si>
+    <t>pumpMotor.f_repl</t>
+  </si>
+  <si>
+    <t>[0	0	0	0	0	0.794997961209469	1.91620710592149	3.66340782590143	7.00053194254757	10.6616297528835	11.1890647627290	11.2279405187141	11.2277213125461	11.1934366085895	11.2473922571621	11.2098142616423	11.1438062076693	11.1273616907102	11.1228424486107	11.1240295153377	11.1278176039227	11.1328371206444	11.1385755705485	11.1448282168896	11.1514961274243]</t>
+  </si>
+  <si>
+    <t>structure.f_repl</t>
+  </si>
+  <si>
+    <t>[0	0	0	0	0	130.388949196501	132.125896939284	130.302239127635	135.689613751230	132.500820465091	124.515660439110	123.350051661913	122.919611216260	122.626866710798	122.754436421934	122.745072840010	122.773588271380	122.901681745870	123.093919941459	123.315575577003	123.547269528843	123.778584819469	124.003535889111	124.218500332100	124.421040233482]</t>
   </si>
 </sst>
 </file>
@@ -428,41 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E8716-C12E-4C74-BB23-8FB9587F4C00}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B7338-6461-434F-80E9-2C921D0CDCA3}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -471,94 +467,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B061E06-0D80-41AB-A869-146906050ACA}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3DA40-233C-46C9-8316-C78F88E0B4B1}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
-        <v>0.09</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,64 +540,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3DA40-233C-46C9-8316-C78F88E0B4B1}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4AD09E-FDEF-4026-AC1D-93146C2A9B86}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -631,81 +603,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4AD09E-FDEF-4026-AC1D-93146C2A9B86}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E8716-C12E-4C74-BB23-8FB9587F4C00}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <f>1.87*10^6</f>
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -714,58 +664,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5144ACA-6792-40EA-A07E-EF86968317B7}">
-  <dimension ref="B1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B061E06-0D80-41AB-A869-146906050ACA}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C3A49-B7D8-4BBF-9B7D-3E5C1B0929C0}">
-  <dimension ref="B1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputData/eco_system_inputs_GG_fixed_example.xlsx
+++ b/inputData/eco_system_inputs_GG_fixed_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10791792_polimi_it/Documents/2024-04 Economic model/EcoModel/inputData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\AWE-Eco\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="11_F25DC773A252ABDACC1048D3711B4E545ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49330C7-3DC0-46CF-8A10-7022A326DC73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDF17D-9C80-4B3B-B2F0-0FD2DB62214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atm" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>structure.m</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>[0	0	0	0	0	130.388949196501	132.125896939284	130.302239127635	135.689613751230	132.500820465091	124.515660439110	123.350051661913	122.919611216260	122.626866710798	122.754436421934	122.745072840010	122.773588271380	122.901681745870	123.093919941459	123.315575577003	123.547269528843	123.778584819469	124.003535889111	124.218500332100	124.421040233482]</t>
+  </si>
+  <si>
+    <t>batt.E_rated</t>
+  </si>
+  <si>
+    <t>batt.E_ex</t>
+  </si>
+  <si>
+    <t>batt.f_repl</t>
   </si>
 </sst>
 </file>
@@ -448,12 +457,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -474,12 +483,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +496,7 @@
         <v>5543</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -495,7 +504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -503,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -511,7 +520,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -519,19 +528,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
   </sheetData>
@@ -547,13 +556,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -561,7 +570,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -569,7 +578,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -577,7 +586,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -585,16 +594,16 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
@@ -606,17 +615,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E8716-C12E-4C74-BB23-8FB9587F4C00}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -624,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -633,7 +642,7 @@
         <v>1870000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -641,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -650,7 +659,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -665,19 +674,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B061E06-0D80-41AB-A869-146906050ACA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -685,7 +694,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -693,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -701,43 +710,67 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
